--- a/2DES/1-pwbe/Prova/alugueis.xlsx
+++ b/2DES/1-pwbe/Prova/alugueis.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\03-bcd\aula08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\senai2024\2DES\1-pwbe\Prova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A94A0A4-9BDD-456E-91EC-B56616332965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E419D9C-C6E6-4CE1-807D-FBBF649B5E75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -203,11 +202,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,33 +592,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128D5413-108D-4C81-B9FD-55D9CD29E205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -709,7 +708,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -751,11 +750,11 @@
         <v>47</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N26" si="1">L3*E3</f>
+        <f t="shared" ref="N3:N23" si="1">L3*E3</f>
         <v>960</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -801,7 +800,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -847,7 +846,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -893,7 +892,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -939,7 +938,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -985,7 +984,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1169,7 +1168,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1307,7 +1306,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1399,7 +1398,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1479,17 +1478,17 @@
       <c r="K19" s="1"/>
       <c r="L19" s="2">
         <f ca="1">TODAY()-J19</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M19" t="s">
         <v>48</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1523,17 +1522,17 @@
       <c r="K20" s="1"/>
       <c r="L20" s="2">
         <f t="shared" ref="L20:L23" ca="1" si="2">TODAY()-J20</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M20" t="s">
         <v>48</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1567,17 +1566,17 @@
       <c r="K21" s="1"/>
       <c r="L21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M21" t="s">
         <v>48</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1611,17 +1610,17 @@
       <c r="K22" s="1"/>
       <c r="L22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M22" t="s">
         <v>48</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1655,17 +1654,17 @@
       <c r="K23" s="1"/>
       <c r="L23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M23" t="s">
         <v>48</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1703,7 +1702,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1741,7 +1740,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>29</v>
       </c>
